--- a/ТерВер/L2.xlsx
+++ b/ТерВер/L2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26040" windowHeight="12831"/>
+    <workbookView windowWidth="21925" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Исходные данные</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>tтабл=</t>
+  </si>
+  <si>
+    <t>r^2=</t>
   </si>
   <si>
     <t>Система нормальных уравнений:</t>
@@ -122,11 +125,11 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,9 +155,8 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,6 +172,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,23 +200,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,13 +230,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -250,15 +244,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -273,37 +291,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,7 +308,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,7 +332,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,43 +368,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,13 +386,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,79 +410,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,19 +440,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,21 +668,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -724,15 +699,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,207 +741,220 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1523,7 +1502,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.020205626160217"/>
+          <c:y val="0.0803115766854687"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1896,11 +1882,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>д) Экспоненциальная</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> зависимость</a:t>
+              <a:t>д) Экспоненциальная зависимость</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -2341,7 +2323,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0363176799255022"/>
+          <c:y val="0.0370786516853933"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2696,10 +2685,10 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr defTabSz="914400">
               <a:defRPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -2713,12 +2702,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>корреляционное поле</a:t>
+              <a:t>Корреляционное поле</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2742,7 +2727,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2766,6 +2751,29 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d>
+                <a:extrusionClr>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:extrusionClr>
+                <a:contourClr>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Лист1!$A$6:$A$13</c:f>
@@ -2828,79 +2836,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-5.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$G$20:$G$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$F$20:$F$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>74.5625</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>79.3125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2915,11 +2850,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1543190911"/>
-        <c:axId val="1543196735"/>
+        <c:axId val="910854296"/>
+        <c:axId val="398465272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1543190911"/>
+        <c:axId val="910854296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2957,7 +2892,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2975,12 +2910,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1543196735"/>
+        <c:crossAx val="398465272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1543196735"/>
+        <c:axId val="398465272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3018,7 +2953,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3036,16 +2971,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1543190911"/>
+        <c:crossAx val="910854296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -3059,7 +2992,12 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -5863,22 +5801,142 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>506730</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>177490</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>119568</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8557895" y="9359265"/>
+        <a:ext cx="4745355" cy="2903855"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>554990</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>167005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>562609</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>70599</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8606155" y="939165"/>
+        <a:ext cx="4447540" cy="2435860"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>191460</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>53132</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8571865" y="6438900"/>
+        <a:ext cx="4745355" cy="2861945"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>436880</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>137127</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>87405</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8488045" y="3424555"/>
+        <a:ext cx="4774565" cy="2862580"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>175261</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>30481</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>89017</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>99061</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>883920</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPr id="8" name="Рисунок 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5891,7 +5949,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4420235" y="802640"/>
+          <a:off x="22860" y="15382240"/>
           <a:ext cx="1816735" cy="655320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5903,20 +5961,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>24720</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>13970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>525781</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>3635</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>427990</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>23495</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="11" name="Рисунок 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5929,7 +5987,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4397375" y="1578610"/>
+          <a:off x="0" y="16158210"/>
           <a:ext cx="2276475" cy="1152525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5939,142 +5997,22 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>81709</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>158894</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>386834</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>176862</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="15110460" y="3853815"/>
-        <a:ext cx="4745990" cy="2903855"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>200621</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>208240</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>94244</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="10154285" y="962660"/>
-        <a:ext cx="4448175" cy="2435860"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>33046</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>172697</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>338171</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>177569</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Диаграмма 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="9352915" y="6372225"/>
-        <a:ext cx="4745355" cy="2862580"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495031</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>149298</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>195278</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>116688</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Диаграмма 6"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="8545830" y="3453765"/>
-        <a:ext cx="4775200" cy="2862580"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>516890</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Рисунок 9" descr="https://excel2.ru/sites/default/files/styles/mymedium_320/public/regress-20.png?itok=aNwbpNf9"/>
+        <xdr:cNvPr id="12" name="Рисунок 9" descr="https://excel2.ru/sites/default/files/styles/mymedium_320/public/regress-20.png?itok=aNwbpNf9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6094,7 +6032,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4978400" y="9339580"/>
+          <a:off x="0" y="17477740"/>
           <a:ext cx="3171825" cy="1859280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6116,25 +6054,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>356576</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>96442</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>97790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>113972</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>86164</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>310515</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Диаграмма 8"/>
+        <xdr:cNvPr id="13" name="Диаграмма 12"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5869940" y="13001625"/>
-        <a:ext cx="8004175" cy="5133340"/>
+        <a:off x="635" y="11670030"/>
+        <a:ext cx="4554855" cy="2784475"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6405,10 +6343,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6426,8 +6364,8 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" ht="15.4" spans="1:11">
       <c r="A2" s="2" t="s">
@@ -6454,11 +6392,11 @@
       <c r="H2" s="3">
         <v>5.3</v>
       </c>
-      <c r="I2" s="44">
+      <c r="I2" s="33">
         <v>6</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="43"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" ht="15.4" spans="1:11">
       <c r="A3" s="2" t="s">
@@ -6485,30 +6423,45 @@
       <c r="H3" s="3">
         <v>-5.6</v>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="33">
         <v>-5.9</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="43"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="32"/>
     </row>
-    <row r="5" ht="15.4" spans="1:5">
-      <c r="A5" s="4" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" ht="15.4" spans="1:9">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
-    <row r="6" ht="15.4" spans="1:5">
+    <row r="6" ht="15.4" spans="1:9">
       <c r="A6" s="5">
         <f>B2</f>
         <v>1</v>
@@ -6529,8 +6482,12 @@
         <f>POWER(B6,2)</f>
         <v>1.69</v>
       </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
-    <row r="7" ht="15.4" spans="1:5">
+    <row r="7" ht="15.4" spans="1:9">
       <c r="A7" s="5">
         <f>C2</f>
         <v>1.3</v>
@@ -6551,8 +6508,12 @@
         <f t="shared" ref="E7:E13" si="2">POWER(B7,2)</f>
         <v>4.84</v>
       </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
-    <row r="8" ht="15.4" spans="1:5">
+    <row r="8" ht="15.4" spans="1:9">
       <c r="A8" s="5">
         <f>D2</f>
         <v>2.2</v>
@@ -6573,8 +6534,12 @@
         <f t="shared" si="2"/>
         <v>7.84</v>
       </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
-    <row r="9" ht="15.4" spans="1:5">
+    <row r="9" ht="15.4" spans="1:9">
       <c r="A9" s="5">
         <f>E2</f>
         <v>2.6</v>
@@ -6595,8 +6560,12 @@
         <f t="shared" si="2"/>
         <v>10.24</v>
       </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
-    <row r="10" ht="15.4" spans="1:5">
+    <row r="10" ht="15.4" spans="1:9">
       <c r="A10" s="5">
         <f>F2</f>
         <v>3.3</v>
@@ -6617,8 +6586,12 @@
         <f t="shared" si="2"/>
         <v>14.44</v>
       </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
-    <row r="11" ht="15.4" spans="1:5">
+    <row r="11" ht="15.4" spans="1:9">
       <c r="A11" s="5">
         <f>G2</f>
         <v>3.6</v>
@@ -6639,8 +6612,12 @@
         <f t="shared" si="2"/>
         <v>19.36</v>
       </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
     </row>
-    <row r="12" ht="15.4" spans="1:5">
+    <row r="12" ht="15.4" spans="1:9">
       <c r="A12" s="5">
         <f>H2</f>
         <v>5.3</v>
@@ -6661,8 +6638,12 @@
         <f t="shared" si="2"/>
         <v>31.36</v>
       </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
-    <row r="13" ht="15.4" spans="1:5">
+    <row r="13" ht="15.4" spans="1:9">
       <c r="A13" s="5">
         <f>I2</f>
         <v>6</v>
@@ -6683,835 +6664,1069 @@
         <f t="shared" si="2"/>
         <v>34.81</v>
       </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
-    <row r="14" ht="15.4" spans="1:5">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+    <row r="14" ht="15.4" spans="1:9">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
     </row>
-    <row r="15" ht="15.4" spans="1:5">
-      <c r="A15" s="4">
+    <row r="15" ht="15.4" spans="1:9">
+      <c r="A15" s="5">
         <f>SUM(A6:A13)</f>
         <v>25.3</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <f>SUM(B6:B13)</f>
         <v>-29.2</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <f>SUM(C6:C13)</f>
         <v>-112.1</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <f>SUM(D6:D13)</f>
         <v>102.23</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <f>SUM(E6:E13)</f>
         <v>124.58</v>
       </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="4">
         <f>COUNT(A6:A13)</f>
         <v>8</v>
       </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="6">
         <f>CORREL(A6:A13,B6:B13)</f>
         <v>-0.987827177013049</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="7">
         <f>ABS(B17)*SQRT((B16-2)/(1-B17^2))</f>
         <v>15.5550578343834</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="16">
         <f>TINV(0.05,6)</f>
         <v>2.44691185114497</v>
       </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
-    <row r="19" ht="15.75" spans="1:1">
-      <c r="A19" t="s">
+    <row r="18" spans="1:9">
+      <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="B18" s="4">
+        <f>B17*B17</f>
+        <v>0.97580253164557</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="10">
+    <row r="19" ht="15.75" spans="1:9">
+      <c r="A19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="8">
         <f>B16</f>
         <v>8</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="9">
         <f>A15</f>
         <v>25.3</v>
       </c>
-      <c r="D20" s="12">
+      <c r="C20" s="4"/>
+      <c r="D20" s="10">
         <f>B15</f>
         <v>-29.2</v>
       </c>
-      <c r="F20">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4">
         <v>74.5625</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="4">
         <v>0</v>
       </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
-    <row r="21" ht="15.75" spans="1:7">
-      <c r="A21" s="13">
+    <row r="21" ht="15.75" spans="1:9">
+      <c r="A21" s="11">
         <f>A15</f>
         <v>25.3</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="12">
         <f>D15</f>
         <v>102.23</v>
       </c>
-      <c r="D21" s="15">
+      <c r="C21" s="4"/>
+      <c r="D21" s="13">
         <f>C15</f>
         <v>-112.1</v>
       </c>
-      <c r="F21">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4">
         <f>F20+0.095*50</f>
         <v>79.3125</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <v>50</v>
       </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
-    <row r="22" ht="15.75"/>
-    <row r="23" spans="1:4">
-      <c r="A23" s="16">
+    <row r="22" ht="15.75" spans="1:9">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="4">
         <f t="array" ref="A23:B24">MINVERSE(A20:B21)</f>
         <v>0.575133614627285</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="4">
         <v>-0.142334739803094</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="11">
+      <c r="C23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="9">
         <f t="array" ref="D23:D24">MMULT(A23:B24,D20:D21)</f>
         <v>-0.838177215189871</v>
       </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
-    <row r="24" ht="15.75" spans="1:4">
-      <c r="A24" s="16">
+    <row r="24" ht="15.75" spans="1:9">
+      <c r="A24" s="4">
         <v>-0.142334739803094</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="4">
         <v>0.0450070323488045</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="14">
+      <c r="C24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="12">
         <v>-0.889113924050632</v>
       </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="7" t="s">
+    <row r="25" spans="1:9">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="17" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="B27" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="17" t="s">
+      <c r="E27" s="14" t="s">
         <v>22</v>
       </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="17">
+    <row r="28" spans="1:9">
+      <c r="A28" s="14">
         <f>1/A6</f>
         <v>1</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="14">
         <f>B6</f>
         <v>-1.3</v>
       </c>
-      <c r="D28" s="17">
+      <c r="C28" s="4"/>
+      <c r="D28" s="14">
         <f>A6</f>
         <v>1</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="14">
         <f>LN(ABS(B6))</f>
         <v>0.262364264467491</v>
       </c>
-      <c r="G28" s="17">
+      <c r="F28" s="4"/>
+      <c r="G28" s="14">
         <f>A6</f>
         <v>1</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="14">
         <f>1/B6</f>
         <v>-0.769230769230769</v>
       </c>
+      <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="17">
+    <row r="29" spans="1:9">
+      <c r="A29" s="14">
         <f t="shared" ref="A29:A35" si="3">1/A7</f>
         <v>0.769230769230769</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="14">
         <f t="shared" ref="B29:B35" si="4">B7</f>
         <v>-2.2</v>
       </c>
-      <c r="D29" s="17">
+      <c r="C29" s="4"/>
+      <c r="D29" s="14">
         <f t="shared" ref="D29:D35" si="5">A7</f>
         <v>1.3</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="14">
         <f t="shared" ref="E29:E35" si="6">LN(ABS(B7))</f>
         <v>0.78845736036427</v>
       </c>
-      <c r="G29" s="17">
+      <c r="F29" s="4"/>
+      <c r="G29" s="14">
         <f t="shared" ref="G29:G35" si="7">A7</f>
         <v>1.3</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="14">
         <f t="shared" ref="H29:H35" si="8">1/B7</f>
         <v>-0.454545454545455</v>
       </c>
+      <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="17">
+    <row r="30" spans="1:9">
+      <c r="A30" s="14">
         <f t="shared" si="3"/>
         <v>0.454545454545455</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="14">
         <f t="shared" si="4"/>
         <v>-2.8</v>
       </c>
-      <c r="D30" s="17">
+      <c r="C30" s="4"/>
+      <c r="D30" s="14">
         <f t="shared" si="5"/>
         <v>2.2</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="14">
         <f t="shared" si="6"/>
         <v>1.02961941718116</v>
       </c>
-      <c r="G30" s="17">
+      <c r="F30" s="4"/>
+      <c r="G30" s="14">
         <f t="shared" si="7"/>
         <v>2.2</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="14">
         <f t="shared" si="8"/>
         <v>-0.357142857142857</v>
       </c>
+      <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="17">
+    <row r="31" spans="1:9">
+      <c r="A31" s="14">
         <f t="shared" si="3"/>
         <v>0.384615384615385</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="14">
         <f t="shared" si="4"/>
         <v>-3.2</v>
       </c>
-      <c r="D31" s="17">
+      <c r="C31" s="4"/>
+      <c r="D31" s="14">
         <f t="shared" si="5"/>
         <v>2.6</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="14">
         <f t="shared" si="6"/>
         <v>1.16315080980568</v>
       </c>
-      <c r="G31" s="17">
+      <c r="F31" s="4"/>
+      <c r="G31" s="14">
         <f t="shared" si="7"/>
         <v>2.6</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="14">
         <f t="shared" si="8"/>
         <v>-0.3125</v>
       </c>
+      <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="17">
+    <row r="32" spans="1:9">
+      <c r="A32" s="14">
         <f t="shared" si="3"/>
         <v>0.303030303030303</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="14">
         <f t="shared" si="4"/>
         <v>-3.8</v>
       </c>
-      <c r="D32" s="17">
+      <c r="C32" s="4"/>
+      <c r="D32" s="14">
         <f t="shared" si="5"/>
         <v>3.3</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="14">
         <f t="shared" si="6"/>
         <v>1.33500106673234</v>
       </c>
-      <c r="G32" s="17">
+      <c r="F32" s="4"/>
+      <c r="G32" s="14">
         <f t="shared" si="7"/>
         <v>3.3</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="14">
         <f t="shared" si="8"/>
         <v>-0.263157894736842</v>
       </c>
+      <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="17">
+    <row r="33" spans="1:9">
+      <c r="A33" s="14">
         <f t="shared" si="3"/>
         <v>0.277777777777778</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="14">
         <f t="shared" si="4"/>
         <v>-4.4</v>
       </c>
-      <c r="D33" s="17">
+      <c r="C33" s="4"/>
+      <c r="D33" s="14">
         <f t="shared" si="5"/>
         <v>3.6</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="14">
         <f t="shared" si="6"/>
         <v>1.48160454092422</v>
       </c>
-      <c r="G33" s="17">
+      <c r="F33" s="4"/>
+      <c r="G33" s="14">
         <f t="shared" si="7"/>
         <v>3.6</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="14">
         <f t="shared" si="8"/>
         <v>-0.227272727272727</v>
       </c>
+      <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="17">
+    <row r="34" spans="1:9">
+      <c r="A34" s="14">
         <f t="shared" si="3"/>
         <v>0.188679245283019</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="14">
         <f t="shared" si="4"/>
         <v>-5.6</v>
       </c>
-      <c r="D34" s="17">
+      <c r="C34" s="4"/>
+      <c r="D34" s="14">
         <f t="shared" si="5"/>
         <v>5.3</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="14">
         <f t="shared" si="6"/>
         <v>1.7227665977411</v>
       </c>
-      <c r="G34" s="17">
+      <c r="F34" s="4"/>
+      <c r="G34" s="14">
         <f t="shared" si="7"/>
         <v>5.3</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="14">
         <f t="shared" si="8"/>
         <v>-0.178571428571429</v>
       </c>
+      <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="17">
+    <row r="35" spans="1:9">
+      <c r="A35" s="14">
         <f t="shared" si="3"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="14">
         <f t="shared" si="4"/>
         <v>-5.9</v>
       </c>
-      <c r="D35" s="17">
+      <c r="C35" s="4"/>
+      <c r="D35" s="14">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="14">
         <f t="shared" si="6"/>
         <v>1.77495235091167</v>
       </c>
-      <c r="G35" s="17">
+      <c r="F35" s="4"/>
+      <c r="G35" s="14">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="14">
         <f t="shared" si="8"/>
         <v>-0.169491525423729</v>
       </c>
+      <c r="I35" s="4"/>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="18" t="s">
+    <row r="36" spans="1:9">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="B38" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="C38" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="D38" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="E38" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="F38" s="14" t="s">
         <v>29</v>
       </c>
+      <c r="G38" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="17">
+    <row r="39" spans="1:9">
+      <c r="A39" s="14">
         <f>A6</f>
         <v>1</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="14">
         <f>A39^2</f>
         <v>1</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="14">
         <f>A39^3</f>
         <v>1</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="14">
         <f>A39^4</f>
         <v>1</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="14">
         <f>B6</f>
         <v>-1.3</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="14">
         <f>A39*E39</f>
         <v>-1.3</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="14">
         <f>B39*E39</f>
         <v>-1.3</v>
       </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="17">
+    <row r="40" spans="1:9">
+      <c r="A40" s="14">
         <f t="shared" ref="A40:A46" si="9">A7</f>
         <v>1.3</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="14">
         <f t="shared" ref="B40:B46" si="10">A40^2</f>
         <v>1.69</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="14">
         <f t="shared" ref="C40:C46" si="11">A40^3</f>
         <v>2.197</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="14">
         <f t="shared" ref="D40:D46" si="12">A40^4</f>
         <v>2.8561</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="14">
         <f t="shared" ref="E40:E46" si="13">B7</f>
         <v>-2.2</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="14">
         <f t="shared" ref="F40:F46" si="14">A40*E40</f>
         <v>-2.86</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="14">
         <f t="shared" ref="G40:G46" si="15">B40*E40</f>
         <v>-3.718</v>
       </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="17">
+    <row r="41" spans="1:9">
+      <c r="A41" s="14">
         <f t="shared" si="9"/>
         <v>2.2</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="14">
         <f t="shared" si="10"/>
         <v>4.84</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="14">
         <f t="shared" si="11"/>
         <v>10.648</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="14">
         <f t="shared" si="12"/>
         <v>23.4256</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="14">
         <f t="shared" si="13"/>
         <v>-2.8</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="14">
         <f t="shared" si="14"/>
         <v>-6.16</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G41" s="14">
         <f t="shared" si="15"/>
         <v>-13.552</v>
       </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="17">
+    <row r="42" spans="1:9">
+      <c r="A42" s="14">
         <f t="shared" si="9"/>
         <v>2.6</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="14">
         <f t="shared" si="10"/>
         <v>6.76</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="14">
         <f t="shared" si="11"/>
         <v>17.576</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="14">
         <f t="shared" si="12"/>
         <v>45.6976</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="14">
         <f t="shared" si="13"/>
         <v>-3.2</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="14">
         <f t="shared" si="14"/>
         <v>-8.32</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G42" s="14">
         <f t="shared" si="15"/>
         <v>-21.632</v>
       </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="17">
+    <row r="43" spans="1:9">
+      <c r="A43" s="14">
         <f t="shared" si="9"/>
         <v>3.3</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="14">
         <f t="shared" si="10"/>
         <v>10.89</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="14">
         <f t="shared" si="11"/>
         <v>35.937</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="14">
         <f t="shared" si="12"/>
         <v>118.5921</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="14">
         <f t="shared" si="13"/>
         <v>-3.8</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="14">
         <f t="shared" si="14"/>
         <v>-12.54</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G43" s="14">
         <f t="shared" si="15"/>
         <v>-41.382</v>
       </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="17">
+    <row r="44" spans="1:9">
+      <c r="A44" s="14">
         <f t="shared" si="9"/>
         <v>3.6</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="14">
         <f t="shared" si="10"/>
         <v>12.96</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="14">
         <f t="shared" si="11"/>
         <v>46.656</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="14">
         <f t="shared" si="12"/>
         <v>167.9616</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="14">
         <f t="shared" si="13"/>
         <v>-4.4</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="14">
         <f t="shared" si="14"/>
         <v>-15.84</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="14">
         <f t="shared" si="15"/>
         <v>-57.024</v>
       </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="17">
+    <row r="45" spans="1:9">
+      <c r="A45" s="14">
         <f t="shared" si="9"/>
         <v>5.3</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="14">
         <f t="shared" si="10"/>
         <v>28.09</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="14">
         <f t="shared" si="11"/>
         <v>148.877</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="14">
         <f t="shared" si="12"/>
         <v>789.0481</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="14">
         <f t="shared" si="13"/>
         <v>-5.6</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="14">
         <f t="shared" si="14"/>
         <v>-29.68</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="14">
         <f t="shared" si="15"/>
         <v>-157.304</v>
       </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="17">
+    <row r="46" spans="1:9">
+      <c r="A46" s="14">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="14">
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="14">
         <f t="shared" si="11"/>
         <v>216</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="14">
         <f t="shared" si="12"/>
         <v>1296</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="14">
         <f t="shared" si="13"/>
         <v>-5.9</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="14">
         <f t="shared" si="14"/>
         <v>-35.4</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="14">
         <f t="shared" si="15"/>
         <v>-212.4</v>
       </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
+    <row r="47" spans="1:9">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="18">
+    <row r="48" spans="1:9">
+      <c r="A48" s="14">
         <f t="shared" ref="A48:G48" si="16">SUM(A39:A46)</f>
         <v>25.3</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="15">
         <f t="shared" si="16"/>
         <v>102.23</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="15">
         <f t="shared" si="16"/>
         <v>478.891</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="15">
         <f t="shared" si="16"/>
         <v>2444.5811</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="15">
         <f t="shared" si="16"/>
         <v>-29.2</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="14">
         <f t="shared" si="16"/>
         <v>-112.1</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="14">
         <f t="shared" si="16"/>
         <v>-508.312</v>
       </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="1:9">
+      <c r="A49" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="4">
         <f>COUNT(A39:A46)</f>
         <v>8</v>
       </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="7" t="s">
+    <row r="50" spans="1:9">
+      <c r="A50" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="6">
         <f>CORREL(A39:A46,E39:E46)</f>
         <v>-0.987827177013049</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="16">
         <f>ABS(B50)*SQRT((B49-2)/(1-B50^2))</f>
         <v>15.5550578343834</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="9" t="e">
-        <f>_xlfn.T.INV.2T(0.05,B49-2)</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="F50" s="16">
+        <f>TINV(0.05,B49-2)</f>
+        <v>2.44691185114497</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
     </row>
-    <row r="52" ht="15.75" spans="1:1">
-      <c r="A52" t="s">
-        <v>12</v>
-      </c>
+    <row r="51" spans="1:9">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="21">
+    <row r="52" ht="15.75" spans="1:9">
+      <c r="A52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="17">
         <f>D48</f>
         <v>2444.5811</v>
       </c>
-      <c r="B53" s="22">
+      <c r="B53" s="18">
         <f>C48</f>
         <v>478.891</v>
       </c>
-      <c r="C53" s="23">
+      <c r="C53" s="19">
         <f>B48</f>
         <v>102.23</v>
       </c>
-      <c r="D53" s="24"/>
-      <c r="E53" s="39">
+      <c r="D53" s="6"/>
+      <c r="E53" s="10">
         <f>G48</f>
         <v>-508.312</v>
       </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="25">
+    <row r="54" spans="1:9">
+      <c r="A54" s="20">
         <f>C48</f>
         <v>478.891</v>
       </c>
-      <c r="B54" s="26">
+      <c r="B54" s="21">
         <f>B48</f>
         <v>102.23</v>
       </c>
-      <c r="C54" s="27">
+      <c r="C54" s="22">
         <f>A48</f>
         <v>25.3</v>
       </c>
-      <c r="D54" s="24"/>
-      <c r="E54" s="40">
+      <c r="D54" s="6"/>
+      <c r="E54" s="30">
         <f>F48</f>
         <v>-112.1</v>
       </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
     </row>
-    <row r="55" ht="15.75" spans="1:5">
-      <c r="A55" s="28">
+    <row r="55" ht="15.75" spans="1:9">
+      <c r="A55" s="23">
         <f>B48</f>
         <v>102.23</v>
       </c>
-      <c r="B55" s="29">
+      <c r="B55" s="24">
         <f>A48</f>
         <v>25.3</v>
       </c>
-      <c r="C55" s="30">
+      <c r="C55" s="12">
         <f>B49</f>
         <v>8</v>
       </c>
-      <c r="E55" s="41">
+      <c r="D55" s="4"/>
+      <c r="E55" s="31">
         <f>E48</f>
         <v>-29.2</v>
       </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
     </row>
-    <row r="56" ht="15.75" spans="4:4">
-      <c r="D56" s="24"/>
+    <row r="56" ht="15.75" spans="1:9">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="31">
+    <row r="57" spans="1:9">
+      <c r="A57" s="8">
         <f t="array" ref="A57:C59">MINVERSE(A53:C55)</f>
         <v>0.0205392205349373</v>
       </c>
-      <c r="B57" s="32">
+      <c r="B57" s="25">
         <v>-0.143827581731765</v>
       </c>
-      <c r="C57" s="33">
+      <c r="C57" s="9">
         <v>0.192389162815877</v>
       </c>
-      <c r="D57" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" s="12">
+      <c r="D57" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="10">
         <f t="array" ref="E57:E59">MMULT(A57:C59,E53:E55)</f>
         <v>0.0649760893522062</v>
       </c>
-      <c r="F57" s="24"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="35">
+    <row r="58" spans="1:9">
+      <c r="A58" s="27">
         <v>-0.143827581731765</v>
       </c>
-      <c r="B58" s="36">
+      <c r="B58" s="28">
         <v>1.05217150734044</v>
       </c>
-      <c r="C58" s="27">
+      <c r="C58" s="22">
         <v>-1.48955568190935</v>
       </c>
-      <c r="D58" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="E58" s="42">
+      <c r="D58" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="30">
         <v>-1.34411433587342</v>
       </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
     </row>
-    <row r="59" ht="15.75" spans="1:5">
-      <c r="A59" s="38">
+    <row r="59" ht="15.75" spans="1:9">
+      <c r="A59" s="11">
         <v>0.192389162815877</v>
       </c>
-      <c r="B59" s="29">
+      <c r="B59" s="24">
         <v>-1.48955568190935</v>
       </c>
-      <c r="C59" s="30">
+      <c r="C59" s="12">
         <v>2.37722682970493</v>
       </c>
-      <c r="D59" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E59" s="15">
+      <c r="D59" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="13">
         <v>-0.229551614609875</v>
       </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
